--- a/data/trans_dic/P25_6-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25_6-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece enfermedades del corazón (trastornos cardíacos/insufiencia cardíaca /insuficiencia cardíaca congestiva; angina de pecho; infarto de miocardio/ataque al corazón)</t>
+          <t>Población que padece enfermedades del corazón (trastornos cardíacos/insufiencia cardíaca /insuficiencia cardíaca congestiva; angina de pecho; infarto de miocardio/ataque al corazón) (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>2,81%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>0,8%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,58%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>0,91%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2,48%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3,02%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>1,82%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,55%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>1,45%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>2,48%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>1,47%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,64%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1,46%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>2,43%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>2,91%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>1,28%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>1,16%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,71</t>
+          <t>0,0; 3,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 5,84</t>
+          <t>0,56; 5,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,67; 7,39</t>
+          <t>0,61; 6,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,1</t>
+          <t>0,77; 8,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,9</t>
+          <t>0,0; 4,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,43</t>
+          <t>0,0; 4,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,67; 6,4</t>
+          <t>0,0; 3,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,48</t>
+          <t>0,0; 3,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,95</t>
+          <t>0,62; 5,72</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,33</t>
+          <t>1,07; 6,88</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,14; 5,39</t>
+          <t>0,0; 6,64</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,28</t>
+          <t>0,0; 4,5</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,21</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,6; 3,67</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1,14; 5,09</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>1,3; 5,31</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>0,41; 3,42</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>0,32; 3,75</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>0,93%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1,8%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>0,86%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,86%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1,47%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>1,02%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,4%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0,42%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1,66%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>1,05%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,28%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>1,02%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>0,65%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
+          <t>2,3%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>0,31%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>1,03%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>0,69%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>1,73%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
           <t>0,95%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>1,87%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,39</t>
+          <t>0,0; 3,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,48</t>
+          <t>0,0; 3,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,23</t>
+          <t>0,0; 3,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,51</t>
+          <t>0,52; 4,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,1</t>
+          <t>0,0; 4,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,9</t>
+          <t>0,0; 5,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,16</t>
+          <t>0,0; 3,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,43</t>
+          <t>0,0; 2,1</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,46</t>
+          <t>0,51; 4,63</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,84</t>
+          <t>0,0; 3,63</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,88</t>
+          <t>0,54; 6,08</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,59</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0,28; 2,73</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 1,98</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>0,63; 3,59</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0,25; 2,67</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0,7; 3,76</t>
         </is>
       </c>
     </row>
@@ -936,7 +1105,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -946,52 +1115,82 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>0,32%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1,58%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>0,78%</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3,48%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
         <is>
           <t>2,39%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>1,0%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>1,32%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>0,88%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>1,78%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,98%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,33%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,87%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>2,53%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>2,37%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>3,56%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,01</t>
+          <t>0,41; 3,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,04</t>
+          <t>0,31; 3,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,72</t>
+          <t>0,29; 2,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 7,72</t>
+          <t>0,4; 3,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,5</t>
+          <t>0,39; 8,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,28</t>
+          <t>1,41; 13,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,09</t>
+          <t>0,0; 1,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,85</t>
+          <t>0,55; 3,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,32</t>
+          <t>0,0; 1,89</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,63</t>
+          <t>1,94; 5,99</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,98</t>
+          <t>0,83; 4,75</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 5,71</t>
+          <t>0,53; 4,74</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,35; 2,09</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 2,42</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 1,79</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1,53; 4,02</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>1,12; 5,29</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>1,37; 8,76</t>
         </is>
       </c>
     </row>
@@ -1081,57 +1310,87 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>4,86%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>4,11%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>2,01%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>2,4%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3,22%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3,38%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>3,34%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>3,2%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>3,37%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>4,55%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>3,38%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>3,11%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>3,33%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>4,48%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>4,12%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>3,75%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>3,59%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,27; 7,51</t>
+          <t>2,5; 7,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,43; 7,22</t>
+          <t>2,47; 7,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,48; 10,13</t>
+          <t>3,54; 10,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,01; 8,02</t>
+          <t>2,81; 8,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,79; 4,33</t>
+          <t>1,94; 7,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,18; 4,65</t>
+          <t>1,87; 7,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,77; 5,55</t>
+          <t>0,64; 3,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,65; 6,23</t>
+          <t>1,08; 4,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,92; 4,99</t>
+          <t>1,86; 5,37</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,19; 5,18</t>
+          <t>1,79; 6,3</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,07; 6,8</t>
+          <t>1,34; 6,31</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,21; 5,86</t>
+          <t>1,57; 6,49</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>1,78; 4,65</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>2,16; 4,86</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>3,09; 6,55</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>2,73; 5,96</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>2,26; 5,92</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>2,07; 5,63</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>9,82%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>9,23%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>6,85%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>5,79%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7,55%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>11,53%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>8,1%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>9,88%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>6,48%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>8,07%</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
+          <t>4,94%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>9,91%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>6,67%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>8,21%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>10,7%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
           <t>8,64%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>6,92%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,17; 20,16</t>
+          <t>8,43; 21,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,53; 11,17</t>
+          <t>4,9; 11,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,74; 15,09</t>
+          <t>5,59; 13,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,25; 14,22</t>
+          <t>5,98; 15,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,08; 11,24</t>
+          <t>5,4; 14,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,23; 8,58</t>
+          <t>5,05; 13,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,45; 11,12</t>
+          <t>4,15; 10,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,02; 12,8</t>
+          <t>3,22; 9,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,07; 14,46</t>
+          <t>4,7; 11,66</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,62; 8,9</t>
+          <t>7,53; 17,57</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,77; 11,35</t>
+          <t>4,94; 12,54</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,22; 11,88</t>
+          <t>2,56; 9,13</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>7,07; 13,96</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>4,58; 8,79</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>5,65; 11,25</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>7,55; 14,43</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>6,07; 11,55</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>4,74; 9,93</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>20,39%</t>
+          <t>20,67%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>17,96%</t>
+          <t>18,51%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>21,64%</t>
+          <t>21,08%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>20,92%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>18,99%</t>
+          <t>17,68%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>22,03%</t>
+          <t>21,13%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>23,43%</t>
+          <t>21,3%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>22,48%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>19,6%</t>
+          <t>24,75%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>20,27%</t>
+          <t>20,98%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>22,65%</t>
+          <t>20,17%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
+          <t>21,28%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>21,03%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>20,76%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>23,15%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>20,95%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
           <t>19,12%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>21,22%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,97; 27,95</t>
+          <t>14,61; 27,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,46; 23,8</t>
+          <t>13,15; 24,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,8; 28,33</t>
+          <t>15,14; 28,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,0; 24,78</t>
+          <t>14,23; 28,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,96; 24,74</t>
+          <t>11,56; 24,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,57; 28,3</t>
+          <t>14,88; 29,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,56; 30,0</t>
+          <t>15,5; 27,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,41; 28,41</t>
+          <t>17,32; 27,73</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>15,47; 24,53</t>
+          <t>19,32; 31,97</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>16,58; 24,8</t>
+          <t>14,84; 28,13</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,44; 27,31</t>
+          <t>13,6; 28,84</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>14,2; 24,32</t>
+          <t>15,21; 28,69</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>17,15; 25,9</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>17,08; 24,84</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>19,08; 28,57</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>16,35; 26,24</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>14,08; 24,81</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>16,9; 26,2</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>6,76%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>5,62%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>5,26%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
+          <t>6,69%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>6,09%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>5,81%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>6,65%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>7,32%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
           <t>6,28%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>6,68%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,04; 8,32</t>
+          <t>5,13; 8,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,28; 6,81</t>
+          <t>4,33; 6,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,14; 7,85</t>
+          <t>5,03; 7,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,2; 7,55</t>
+          <t>5,3; 8,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,02; 6,72</t>
+          <t>4,24; 7,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,78; 7,39</t>
+          <t>5,08; 8,69</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,48; 8,39</t>
+          <t>4,49; 7,37</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,17; 8,88</t>
+          <t>5,02; 7,5</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,89; 6,98</t>
+          <t>5,69; 8,68</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4,88; 6,6</t>
+          <t>6,04; 9,71</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>5,62; 7,73</t>
+          <t>5,28; 9,14</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,13; 7,6</t>
+          <t>5,24; 8,69</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>5,13; 7,33</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>5,09; 6,77</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>5,72; 7,82</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>6,12; 8,51</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>5,16; 7,68</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>5,49; 7,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece enfermedades del corazón (trastornos cardíacos/insufiencia cardíaca /insuficiencia cardíaca congestiva; angina de pecho; infarto de miocardio/ataque al corazón) (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3010</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10495</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>12113</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>13247</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3199</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4682</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>12751</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>14397</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>6210</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>15177</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>24863</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>27644</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>1012</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>957</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15080</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2934; 27842</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3137; 35449</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3635; 38457</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1809</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1830</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17390</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17411</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3182; 29385</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>5115; 32832</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2485</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1734</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>0; 21469</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>6242; 38007</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>11639; 52106</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>12341; 50384</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>322; 2707</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>265; 3100</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3368</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6145</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>5522</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>10378</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>4918</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2135</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>8381</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3368</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>11062</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>7658</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>18758</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>924</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>1779</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 18898</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 19487</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 18856</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3017; 28501</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2266</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2574</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16834</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 10779</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2595; 23396</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1712</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>248; 2797</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0; 17379</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2960; 29317</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2081; 21848</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>6792; 38897</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>240; 2596</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>661; 3576</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>11469</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7209</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6555</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>10327</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1414</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3142</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2262</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>11376</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>5565</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>24968</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1287</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>13731</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>18585</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>12120</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>35295</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>2702</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>4120</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2821; 27219</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2117; 20772</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1954; 17938</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2701; 24777</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>235; 4962</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>855; 7973</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13419</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3939; 23055</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13469</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>13938; 43002</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>447; 2562</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>290; 2601</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>4866; 29245</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>7823; 33838</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>4326; 25001</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>21408; 56121</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>1282; 6042</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>1590; 10134</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>29041</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>27793</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>36826</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>31905</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2394</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2155</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>12392</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>16155</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>21273</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>22278</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1728</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1800</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>41433</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>43948</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>58099</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>54183</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>4122</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>3955</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>16151; 49154</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>15958; 46017</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>22514; 67299</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>18432; 54173</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1133; 4512</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1064; 4297</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>4370; 25091</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>7280; 30129</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>12294; 35425</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>11784; 41520</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>694; 3263</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>837; 3458</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>23720; 61839</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>28482; 64161</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>40106; 84978</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>35870; 78405</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>2482; 6514</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>2281; 6203</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>64032</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>38009</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>43845</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>48442</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>4082</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>4018</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>34862</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>29153</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>38914</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>59624</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>3949</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>2280</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>98894</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>67162</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>82759</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>108065</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>8032</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>6298</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>41741; 106676</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>24673; 57967</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>27606; 68889</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>29480; 77668</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2389; 6386</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2266; 6153</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>20843; 54667</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>16213; 47048</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>24233; 60069</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>38921; 90803</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2411; 6114</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1182; 4210</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>70525; 139321</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>46134; 88494</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>57024; 113420</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>76271; 145778</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>5646; 10740</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>4310; 9039</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>112684</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>97938</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>112201</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>118469</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>8282</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>152883</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>156211</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>171403</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>154141</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>12856</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>13551</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>265567</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>254149</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>283605</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>272609</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>21138</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>23239</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>79664; 149247</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>69611; 131192</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>80584; 151447</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>80578; 161495</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>5412; 11665</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>6821; 13702</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>111281; 195125</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>120381; 192693</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>133840; 221434</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>109004; 206622</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>8663; 18375</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>9684; 18267</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>216633; 327145</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>209115; 304054</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>233786; 349994</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>212677; 341338</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>15563; 27433</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>18507; 28693</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>223604</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>187589</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>217062</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>232768</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>16934</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>20113</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>205599</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>222495</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>252042</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>283788</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>20995</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>20234</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>429203</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>410084</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>469104</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>516556</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>37929</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>40347</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>176856; 279208</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>149480; 229593</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>173399; 267806</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>182456; 288208</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>12777; 22555</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>15303; 26196</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>161493; 265407</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>181053; 270575</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>205331; 313403</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>218186; 350610</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>15986; 27685</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>15851; 26288</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>361467; 516358</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>359010; 477898</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>403453; 551611</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>431996; 600544</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>31163; 46375</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>33132; 47394</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
